--- a/spec/ASW/Eng/EGR/EGRVlv/EGRVlv_DD/EGRVlv_DD.xlsx
+++ b/spec/ASW/Eng/EGR/EGRVlv/EGRVlv_DD/EGRVlv_DD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\EGR\EGRVlv\EGRVlv_DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBE7F8E-79EB-4DEB-AAA9-3545DCA2696F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321B8631-B3CA-4A20-AC64-23AF4A650441}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EGRVlv_rEGR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BattU_facCor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>us</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Duty cycle to power stage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -389,13 +381,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>Period_us</t>
-  </si>
-  <si>
-    <t>Period_us</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enum:EngState</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,6 +390,17 @@
   </si>
   <si>
     <t>EngState.STOPPED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period_ms1</t>
+  </si>
+  <si>
+    <t>ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGRVlv_rGovEGR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -824,7 +820,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -866,7 +862,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="B2" s="7">
         <v>-100</v>
@@ -875,24 +871,24 @@
         <v>100</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="7">
         <v>-100</v>
@@ -901,24 +897,24 @@
         <v>100</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="7">
         <v>-32</v>
@@ -927,42 +923,42 @@
         <v>31.9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
@@ -971,22 +967,22 @@
         <v>255</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="7">
         <v>0</v>
@@ -995,24 +991,24 @@
         <v>6000</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="7">
         <v>0</v>
@@ -1021,17 +1017,17 @@
         <v>255</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1046,7 +1042,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1090,33 +1086,33 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="8">
+        <v>-100</v>
+      </c>
+      <c r="C2" s="8">
+        <v>100</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="8">
-        <v>-100</v>
-      </c>
-      <c r="C2" s="8">
-        <v>100</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="8">
         <v>-100</v>
@@ -1125,45 +1121,45 @@
         <v>100</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>92</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1216,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7">
         <v>-32</v>
@@ -1229,21 +1225,21 @@
         <v>31.9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="7">
         <v>-100</v>
@@ -1252,24 +1248,24 @@
         <v>100</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="7">
         <v>-100</v>
@@ -1278,24 +1274,24 @@
         <v>100</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="7">
         <v>-100</v>
@@ -1304,24 +1300,24 @@
         <v>100</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="7">
         <v>-100</v>
@@ -1330,24 +1326,24 @@
         <v>100</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="7">
         <v>-32</v>
@@ -1356,21 +1352,21 @@
         <v>31.9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="7">
         <v>-100</v>
@@ -1379,24 +1375,24 @@
         <v>100</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="7">
         <v>-100</v>
@@ -1405,24 +1401,24 @@
         <v>100</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="7">
         <v>-100</v>
@@ -1431,24 +1427,24 @@
         <v>100</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="7">
         <v>-100</v>
@@ -1457,19 +1453,19 @@
         <v>100</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1483,7 +1479,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1525,7 +1521,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -1534,21 +1530,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -1557,21 +1553,21 @@
         <v>99.998500000000007</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E3" s="6">
         <v>50</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="5">
         <v>-32</v>
@@ -1580,21 +1576,21 @@
         <v>31.9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" s="6">
         <v>0.8</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -1603,21 +1599,21 @@
         <v>65535</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -1626,21 +1622,21 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -1649,21 +1645,21 @@
         <v>65535</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="5">
         <v>-100</v>
@@ -1672,24 +1668,24 @@
         <v>100</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="5">
         <v>-100</v>
@@ -1698,76 +1694,76 @@
         <v>100</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="5">
+        <v>-100</v>
+      </c>
+      <c r="C10" s="5">
+        <v>100</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="5">
-        <v>-100</v>
-      </c>
-      <c r="C10" s="5">
-        <v>100</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="F10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-100</v>
+      </c>
+      <c r="C11" s="5">
+        <v>100</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B11" s="5">
-        <v>-100</v>
-      </c>
-      <c r="C11" s="5">
-        <v>100</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
@@ -1776,24 +1772,24 @@
         <v>6000</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13" s="5">
         <v>-100</v>
@@ -1802,24 +1798,24 @@
         <v>100</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B14" s="5">
         <v>-100</v>
@@ -1828,24 +1824,24 @@
         <v>100</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B15" s="5">
         <v>-100</v>
@@ -1854,24 +1850,24 @@
         <v>100</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5">
         <v>-100</v>
@@ -1880,24 +1876,24 @@
         <v>100</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B17" s="5">
         <v>0</v>
@@ -1906,24 +1902,24 @@
         <v>6000</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B18" s="5">
         <v>-100</v>
@@ -1932,24 +1928,24 @@
         <v>100</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B19" s="5">
         <v>-100</v>
@@ -1958,45 +1954,45 @@
         <v>100</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B20" s="5">
         <v>0</v>
       </c>
       <c r="C20" s="5">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
